--- a/Combo/Alternations.xlsx
+++ b/Combo/Alternations.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moore-cantwell\GSRs\Combo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF688C11-F0B5-4783-8C57-2AF199AEC721}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB8F5D7-0718-49F0-8742-4C058EB1B534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11565" xr2:uid="{888022E4-214E-4A4A-BFD9-04B72A4824A8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11565" activeTab="2" xr2:uid="{888022E4-214E-4A4A-BFD9-04B72A4824A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Voicing_3types" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="107">
   <si>
     <t>input</t>
   </si>
@@ -251,6 +252,102 @@
   </si>
   <si>
     <t>*voiceFinal</t>
+  </si>
+  <si>
+    <t>domEn_nak</t>
+  </si>
+  <si>
+    <t>domEn_nek</t>
+  </si>
+  <si>
+    <t>bohEm_nVk</t>
+  </si>
+  <si>
+    <t>domEn_nVk</t>
+  </si>
+  <si>
+    <t>bohEm_nak</t>
+  </si>
+  <si>
+    <t>honvEd_nVk</t>
+  </si>
+  <si>
+    <t>poEn_nVk</t>
+  </si>
+  <si>
+    <t>honvEd_nak</t>
+  </si>
+  <si>
+    <t>poEn_nak</t>
+  </si>
+  <si>
+    <t>bohEm_nek</t>
+  </si>
+  <si>
+    <t>honvEd_nek</t>
+  </si>
+  <si>
+    <t>poEn_nek</t>
+  </si>
+  <si>
+    <t>kert_nVk</t>
+  </si>
+  <si>
+    <t>TIm_nVk</t>
+  </si>
+  <si>
+    <t>repes_nVk</t>
+  </si>
+  <si>
+    <t>kert_nak</t>
+  </si>
+  <si>
+    <t>TIm_nak</t>
+  </si>
+  <si>
+    <t>repes_nak</t>
+  </si>
+  <si>
+    <t>kert_nek</t>
+  </si>
+  <si>
+    <t>TIm_nek</t>
+  </si>
+  <si>
+    <t>repes_nek</t>
+  </si>
+  <si>
+    <t>Agree-bk-nonLoc</t>
+  </si>
+  <si>
+    <t>Agree-front-loc</t>
+  </si>
+  <si>
+    <t>Agree-nonhigh-front-loc</t>
+  </si>
+  <si>
+    <t>Agree-low-front-loc</t>
+  </si>
+  <si>
+    <t>B_nVK</t>
+  </si>
+  <si>
+    <t>Bi_nVk</t>
+  </si>
+  <si>
+    <t>BE_nVk</t>
+  </si>
+  <si>
+    <t>Be_nVk</t>
+  </si>
+  <si>
+    <t>BNi_nVk</t>
+  </si>
+  <si>
+    <t>BNE_nVk</t>
+  </si>
+  <si>
+    <t>BNe_nVk</t>
   </si>
 </sst>
 </file>
@@ -1127,13 +1224,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9207142-EE2D-4124-B143-5BB5C7C35764}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4647,217 +4746,217 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:I21 A22:E61 I22:I61">
-    <cfRule type="expression" dxfId="0" priority="51">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G21">
-    <cfRule type="expression" dxfId="49" priority="49">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:A121 I62:I121 D82:E121">
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:E62 A63:A81 C63:E63 B63:B121 D64:E81">
-    <cfRule type="expression" dxfId="47" priority="47">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H41">
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G37 F38:F41">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H61">
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:F61">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:H81">
-    <cfRule type="expression" dxfId="42" priority="42">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:G81">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82:H101">
-    <cfRule type="expression" dxfId="41" priority="40">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82:G101">
-    <cfRule type="expression" dxfId="40" priority="39">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:H121">
-    <cfRule type="expression" dxfId="39" priority="38">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102:G121">
-    <cfRule type="expression" dxfId="38" priority="37">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:C65">
-    <cfRule type="expression" dxfId="37" priority="36">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:C67">
-    <cfRule type="expression" dxfId="36" priority="35">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C71">
-    <cfRule type="expression" dxfId="34" priority="33">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:C73">
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C75">
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76:C77">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:C79">
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C81">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C83">
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:C85">
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86:C87">
-    <cfRule type="expression" dxfId="26" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88:C89">
-    <cfRule type="expression" dxfId="25" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C91">
-    <cfRule type="expression" dxfId="24" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C93">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:C95">
-    <cfRule type="expression" dxfId="22" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96:C97">
-    <cfRule type="expression" dxfId="21" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:C99">
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:C101">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102:C103">
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C105">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106:C107">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108:C109">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:C111">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:C113">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114:C115">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C117">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:C119">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C120:C121">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17509,4 +17608,509 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8816743-55BC-47DB-894C-0BA34DFAD590}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>239</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>239</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1773</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1773</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11884</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11884</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>56436</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="1">
+        <v>56436</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:I9 A2:G3 A4:D4 F4:G4 A5:G9 B10:C15 F10:I15 A10:A30">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Combo/Alternations.xlsx
+++ b/Combo/Alternations.xlsx
@@ -1,33 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moore-cantwell\GSRs\Combo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairemoore-cantwell/GitHub/GSR_Learning/Combo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB8F5D7-0718-49F0-8742-4C058EB1B534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47E512C-C2EB-EC43-B1E9-BFB6DA1B94D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11565" activeTab="2" xr2:uid="{888022E4-214E-4A4A-BFD9-04B72A4824A8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" activeTab="3" xr2:uid="{888022E4-214E-4A4A-BFD9-04B72A4824A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Voicing_3types" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="116">
   <si>
     <t>input</t>
   </si>
@@ -348,6 +358,33 @@
   </si>
   <si>
     <t>BNe_nVk</t>
+  </si>
+  <si>
+    <t>lexicon</t>
+  </si>
+  <si>
+    <t>Agree-back-nonloc</t>
+  </si>
+  <si>
+    <t>oi_nak</t>
+  </si>
+  <si>
+    <t>oE_nak</t>
+  </si>
+  <si>
+    <t>oe_nak</t>
+  </si>
+  <si>
+    <t>oi_nek</t>
+  </si>
+  <si>
+    <t>oE_nek</t>
+  </si>
+  <si>
+    <t>oe_nek</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -1228,14 +1265,14 @@
       <selection sqref="A1:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1351,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1380,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1409,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1438,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1467,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1496,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1525,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1554,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1583,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1612,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1641,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1670,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1699,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1728,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1757,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1786,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1815,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1844,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1873,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1902,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1931,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1960,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1989,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -2018,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -2047,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -2076,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2105,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -2134,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -2163,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -2192,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -2221,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -2250,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -2279,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -2308,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -2337,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -2366,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2395,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2424,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -2453,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -2482,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -2511,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
@@ -2540,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
@@ -2569,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
@@ -2598,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -2627,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>44</v>
       </c>
@@ -2656,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
@@ -2685,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -2714,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -2743,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>46</v>
       </c>
@@ -2772,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
@@ -2801,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>47</v>
       </c>
@@ -2830,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>48</v>
       </c>
@@ -2859,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>48</v>
       </c>
@@ -2888,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>49</v>
       </c>
@@ -2917,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>49</v>
       </c>
@@ -2946,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>50</v>
       </c>
@@ -2975,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>50</v>
       </c>
@@ -3004,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>18</v>
       </c>
@@ -3033,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>18</v>
       </c>
@@ -3062,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3091,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>19</v>
       </c>
@@ -3120,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -3149,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -3178,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
@@ -3207,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -3236,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -3265,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -3294,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -3323,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -3352,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>27</v>
       </c>
@@ -3381,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
@@ -3410,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>28</v>
       </c>
@@ -3439,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>28</v>
       </c>
@@ -3468,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
@@ -3497,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -3526,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>30</v>
       </c>
@@ -3555,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>30</v>
       </c>
@@ -3584,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>51</v>
       </c>
@@ -3613,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>51</v>
       </c>
@@ -3642,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>52</v>
       </c>
@@ -3671,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>52</v>
       </c>
@@ -3700,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>53</v>
       </c>
@@ -3729,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>53</v>
       </c>
@@ -3758,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>54</v>
       </c>
@@ -3787,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>54</v>
       </c>
@@ -3816,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>55</v>
       </c>
@@ -3845,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>55</v>
       </c>
@@ -3874,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>56</v>
       </c>
@@ -3903,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>56</v>
       </c>
@@ -3932,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>57</v>
       </c>
@@ -3961,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>57</v>
       </c>
@@ -3990,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>58</v>
       </c>
@@ -4019,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>58</v>
       </c>
@@ -4048,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>59</v>
       </c>
@@ -4077,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>59</v>
       </c>
@@ -4106,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>60</v>
       </c>
@@ -4135,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>60</v>
       </c>
@@ -4164,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>61</v>
       </c>
@@ -4193,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>61</v>
       </c>
@@ -4222,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>62</v>
       </c>
@@ -4251,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>62</v>
       </c>
@@ -4280,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>63</v>
       </c>
@@ -4309,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>63</v>
       </c>
@@ -4338,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>64</v>
       </c>
@@ -4367,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>64</v>
       </c>
@@ -4396,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>65</v>
       </c>
@@ -4425,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>65</v>
       </c>
@@ -4454,7 +4491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>66</v>
       </c>
@@ -4483,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>66</v>
       </c>
@@ -4512,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>67</v>
       </c>
@@ -4541,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>67</v>
       </c>
@@ -4570,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>68</v>
       </c>
@@ -4599,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>68</v>
       </c>
@@ -4628,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>69</v>
       </c>
@@ -4657,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>69</v>
       </c>
@@ -4686,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>70</v>
       </c>
@@ -4715,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>70</v>
       </c>
@@ -4997,9 +5034,9 @@
       <selection activeCell="A483" sqref="A483"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5028,7 +5065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F2">
         <v>0.56000000000000005</v>
       </c>
@@ -5042,7 +5079,7 @@
         <v>6.1013999999993898</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5071,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5100,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5129,7 +5166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F6">
         <v>0.56000000000000005</v>
       </c>
@@ -5143,7 +5180,7 @@
         <v>6.1013999999993898</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5172,7 +5209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5201,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5230,7 +5267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F10">
         <v>0.56000000000000005</v>
       </c>
@@ -5244,7 +5281,7 @@
         <v>5.2073999999992902</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5273,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5302,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -5331,7 +5368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F14">
         <v>0.56000000000000005</v>
       </c>
@@ -5345,7 +5382,7 @@
         <v>5.2073999999992902</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -5374,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -5403,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -5432,7 +5469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F18">
         <v>0.56000000000000005</v>
       </c>
@@ -5446,7 +5483,7 @@
         <v>5.7100999999992998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -5475,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -5504,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -5533,7 +5570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F22">
         <v>0.56000000000000005</v>
       </c>
@@ -5547,7 +5584,7 @@
         <v>5.7100999999992998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -5576,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -5605,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -5634,7 +5671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F26">
         <v>0.56000000000000005</v>
       </c>
@@ -5648,7 +5685,7 @@
         <v>6.0100999999993601</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -5677,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -5706,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -5735,7 +5772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F30">
         <v>0.56000000000000005</v>
       </c>
@@ -5749,7 +5786,7 @@
         <v>6.0100999999993601</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -5778,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -5807,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -5836,7 +5873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F34">
         <v>0.56000000000000005</v>
       </c>
@@ -5850,7 +5887,7 @@
         <v>5.9124999999992598</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -5879,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -5908,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -5937,7 +5974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F38">
         <v>0.56000000000000005</v>
       </c>
@@ -5951,7 +5988,7 @@
         <v>5.9124999999992598</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -5980,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -6009,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -6038,7 +6075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F42">
         <v>0.56000000000000005</v>
       </c>
@@ -6052,7 +6089,7 @@
         <v>5.4092999999992504</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -6081,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -6110,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -6139,7 +6176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F46">
         <v>0.56000000000000005</v>
       </c>
@@ -6153,7 +6190,7 @@
         <v>5.4092999999992504</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -6182,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -6211,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -6240,7 +6277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F50">
         <v>0.56000000000000005</v>
       </c>
@@ -6254,7 +6291,7 @@
         <v>5.8288999999993401</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -6283,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -6312,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -6341,7 +6378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F54">
         <v>0.56000000000000005</v>
       </c>
@@ -6355,7 +6392,7 @@
         <v>5.8288999999993401</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -6384,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -6413,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -6442,7 +6479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F58">
         <v>0.56000000000000005</v>
       </c>
@@ -6456,7 +6493,7 @@
         <v>6.2113999999992604</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -6485,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -6514,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -6543,7 +6580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F62">
         <v>0.56000000000000005</v>
       </c>
@@ -6557,7 +6594,7 @@
         <v>6.2113999999992604</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -6586,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -6615,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -6644,7 +6681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F66">
         <v>0.56000000000000005</v>
       </c>
@@ -6658,7 +6695,7 @@
         <v>5.80869999999938</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -6687,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -6716,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -6745,7 +6782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F70">
         <v>0.56000000000000005</v>
       </c>
@@ -6759,7 +6796,7 @@
         <v>5.80869999999938</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -6788,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -6817,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -6846,7 +6883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F74">
         <v>0.56000000000000005</v>
       </c>
@@ -6860,7 +6897,7 @@
         <v>5.8071999999993</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -6889,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -6918,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -6947,7 +6984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F78">
         <v>0.56000000000000005</v>
       </c>
@@ -6961,7 +6998,7 @@
         <v>5.8071999999993</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -6990,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -7019,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -7051,7 +7088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F82">
         <v>0.56000000000000005</v>
       </c>
@@ -7068,7 +7105,7 @@
         <v>5.3913999999999804</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>31</v>
       </c>
@@ -7100,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>31</v>
       </c>
@@ -7132,7 +7169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -7164,7 +7201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F86">
         <v>0.56000000000000005</v>
       </c>
@@ -7181,7 +7218,7 @@
         <v>5.3913999999999804</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>31</v>
       </c>
@@ -7213,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -7245,7 +7282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -7277,7 +7314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F90">
         <v>0.56000000000000005</v>
       </c>
@@ -7294,7 +7331,7 @@
         <v>1.7325999999999899</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -7326,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -7358,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -7390,7 +7427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F94">
         <v>0.56000000000000005</v>
       </c>
@@ -7407,7 +7444,7 @@
         <v>1.7325999999999899</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>32</v>
       </c>
@@ -7439,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -7471,7 +7508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -7503,7 +7540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F98">
         <v>0.56000000000000005</v>
       </c>
@@ -7520,7 +7557,7 @@
         <v>1.25029999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -7552,7 +7589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -7584,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -7616,7 +7653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F102">
         <v>0.56000000000000005</v>
       </c>
@@ -7633,7 +7670,7 @@
         <v>1.25029999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -7665,7 +7702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -7697,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -7729,7 +7766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F106">
         <v>0.56000000000000005</v>
       </c>
@@ -7746,7 +7783,7 @@
         <v>6.5949999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>34</v>
       </c>
@@ -7778,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -7810,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -7842,7 +7879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F110">
         <v>0.56000000000000005</v>
       </c>
@@ -7859,7 +7896,7 @@
         <v>6.5949999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>34</v>
       </c>
@@ -7891,7 +7928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -7923,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -7955,7 +7992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F114">
         <v>0.56000000000000005</v>
       </c>
@@ -7972,7 +8009,7 @@
         <v>5.5023999999999802</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -8004,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>35</v>
       </c>
@@ -8036,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -8068,7 +8105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F118">
         <v>0.56000000000000005</v>
       </c>
@@ -8085,7 +8122,7 @@
         <v>5.5023999999999802</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>35</v>
       </c>
@@ -8117,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>35</v>
       </c>
@@ -8149,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -8181,7 +8218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F122">
         <v>0.56000000000000005</v>
       </c>
@@ -8198,7 +8235,7 @@
         <v>0.29720000000001101</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -8230,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -8262,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -8294,7 +8331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F126">
         <v>0.56000000000000005</v>
       </c>
@@ -8311,7 +8348,7 @@
         <v>0.29720000000001101</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -8343,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -8375,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -8407,7 +8444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F130">
         <v>0.56000000000000005</v>
       </c>
@@ -8424,7 +8461,7 @@
         <v>6.4518000000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -8456,7 +8493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -8488,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -8520,7 +8557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F134">
         <v>0.56000000000000005</v>
       </c>
@@ -8537,7 +8574,7 @@
         <v>6.4518000000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -8569,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -8601,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -8633,7 +8670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F138">
         <v>0.56000000000000005</v>
       </c>
@@ -8650,7 +8687,7 @@
         <v>0.51670000000000504</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>38</v>
       </c>
@@ -8682,7 +8719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -8714,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -8746,7 +8783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F142">
         <v>0.56000000000000005</v>
       </c>
@@ -8763,7 +8800,7 @@
         <v>0.51670000000000504</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -8795,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -8827,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -8859,7 +8896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F146">
         <v>0.56000000000000005</v>
       </c>
@@ -8876,7 +8913,7 @@
         <v>1.1228</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -8908,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -8940,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -8972,7 +9009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F150">
         <v>0.56000000000000005</v>
       </c>
@@ -8989,7 +9026,7 @@
         <v>1.1228</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>39</v>
       </c>
@@ -9021,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -9053,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -9085,7 +9122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F154">
         <v>0.56000000000000005</v>
       </c>
@@ -9102,7 +9139,7 @@
         <v>0.882000000000013</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -9134,7 +9171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -9166,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -9198,7 +9235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F158">
         <v>0.56000000000000005</v>
       </c>
@@ -9215,7 +9252,7 @@
         <v>0.882000000000013</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>40</v>
       </c>
@@ -9247,7 +9284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>40</v>
       </c>
@@ -9279,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -9308,7 +9345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F162">
         <v>0.56000000000000005</v>
       </c>
@@ -9322,7 +9359,7 @@
         <v>5.9076999999993003</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>41</v>
       </c>
@@ -9351,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>41</v>
       </c>
@@ -9380,7 +9417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -9409,7 +9446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F166">
         <v>0.56000000000000005</v>
       </c>
@@ -9423,7 +9460,7 @@
         <v>5.9076999999993003</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>41</v>
       </c>
@@ -9452,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>41</v>
       </c>
@@ -9481,7 +9518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -9510,7 +9547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F170">
         <v>0.56000000000000005</v>
       </c>
@@ -9524,7 +9561,7 @@
         <v>5.8045999999992901</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>42</v>
       </c>
@@ -9553,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -9582,7 +9619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -9611,7 +9648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F174">
         <v>0.56000000000000005</v>
       </c>
@@ -9625,7 +9662,7 @@
         <v>5.8045999999992901</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -9654,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>42</v>
       </c>
@@ -9683,7 +9720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -9712,7 +9749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F178">
         <v>0.56000000000000005</v>
       </c>
@@ -9726,7 +9763,7 @@
         <v>6.2077999999993301</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>43</v>
       </c>
@@ -9755,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>43</v>
       </c>
@@ -9784,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -9813,7 +9850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F182">
         <v>0.56000000000000005</v>
       </c>
@@ -9827,7 +9864,7 @@
         <v>6.2077999999993301</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>43</v>
       </c>
@@ -9856,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>43</v>
       </c>
@@ -9885,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -9914,7 +9951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F186">
         <v>0.56000000000000005</v>
       </c>
@@ -9928,7 +9965,7 @@
         <v>5.7055999999993503</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>44</v>
       </c>
@@ -9957,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>44</v>
       </c>
@@ -9986,7 +10023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -10015,7 +10052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F190">
         <v>0.56000000000000005</v>
       </c>
@@ -10029,7 +10066,7 @@
         <v>5.7055999999993503</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>44</v>
       </c>
@@ -10058,7 +10095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>44</v>
       </c>
@@ -10087,7 +10124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -10116,7 +10153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F194">
         <v>0.56000000000000005</v>
       </c>
@@ -10130,7 +10167,7 @@
         <v>5.8050999999993396</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>45</v>
       </c>
@@ -10159,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>45</v>
       </c>
@@ -10188,7 +10225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -10217,7 +10254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F198">
         <v>0.56000000000000005</v>
       </c>
@@ -10231,7 +10268,7 @@
         <v>5.8050999999993396</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>45</v>
       </c>
@@ -10260,7 +10297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>45</v>
       </c>
@@ -10289,7 +10326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -10318,7 +10355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F202">
         <v>0.56000000000000005</v>
       </c>
@@ -10332,7 +10369,7 @@
         <v>6.1164999999994496</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>46</v>
       </c>
@@ -10361,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>46</v>
       </c>
@@ -10390,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -10419,7 +10456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F206">
         <v>0.56000000000000005</v>
       </c>
@@ -10433,7 +10470,7 @@
         <v>6.1164999999994496</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>46</v>
       </c>
@@ -10462,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>46</v>
       </c>
@@ -10491,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -10520,7 +10557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F210">
         <v>0.56000000000000005</v>
       </c>
@@ -10534,7 +10571,7 @@
         <v>5.80759999999934</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>47</v>
       </c>
@@ -10563,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>47</v>
       </c>
@@ -10592,7 +10629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -10621,7 +10658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F214">
         <v>0.56000000000000005</v>
       </c>
@@ -10635,7 +10672,7 @@
         <v>5.80759999999934</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>47</v>
       </c>
@@ -10664,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>47</v>
       </c>
@@ -10693,7 +10730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -10722,7 +10759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F218">
         <v>0.56000000000000005</v>
       </c>
@@ -10736,7 +10773,7 @@
         <v>5.8085999999993501</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>48</v>
       </c>
@@ -10765,7 +10802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>48</v>
       </c>
@@ -10794,7 +10831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -10823,7 +10860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F222">
         <v>0.56000000000000005</v>
       </c>
@@ -10837,7 +10874,7 @@
         <v>5.8085999999993501</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>48</v>
       </c>
@@ -10866,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>48</v>
       </c>
@@ -10895,7 +10932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -10924,7 +10961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F226">
         <v>0.56000000000000005</v>
       </c>
@@ -10938,7 +10975,7 @@
         <v>5.8019999999993797</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>49</v>
       </c>
@@ -10967,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>49</v>
       </c>
@@ -10996,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -11025,7 +11062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F230">
         <v>0.56000000000000005</v>
       </c>
@@ -11039,7 +11076,7 @@
         <v>5.8019999999993797</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>49</v>
       </c>
@@ -11068,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>49</v>
       </c>
@@ -11097,7 +11134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -11126,7 +11163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F234">
         <v>0.56000000000000005</v>
       </c>
@@ -11140,7 +11177,7 @@
         <v>6.0096999999992899</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>50</v>
       </c>
@@ -11169,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>50</v>
       </c>
@@ -11198,7 +11235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -11227,7 +11264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F238">
         <v>0.56000000000000005</v>
       </c>
@@ -11241,7 +11278,7 @@
         <v>6.0096999999992899</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>50</v>
       </c>
@@ -11270,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>50</v>
       </c>
@@ -11299,7 +11336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -11328,7 +11365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F242">
         <v>0.56000000000000005</v>
       </c>
@@ -11342,7 +11379,7 @@
         <v>6.1013999999993898</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>18</v>
       </c>
@@ -11371,7 +11408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>18</v>
       </c>
@@ -11400,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -11429,7 +11466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F246">
         <v>0.56000000000000005</v>
       </c>
@@ -11443,7 +11480,7 @@
         <v>6.1013999999993898</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>18</v>
       </c>
@@ -11472,7 +11509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>18</v>
       </c>
@@ -11501,7 +11538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -11530,7 +11567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F250">
         <v>0.56000000000000005</v>
       </c>
@@ -11544,7 +11581,7 @@
         <v>5.2073999999992902</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>19</v>
       </c>
@@ -11573,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>19</v>
       </c>
@@ -11602,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -11631,7 +11668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F254">
         <v>0.56000000000000005</v>
       </c>
@@ -11645,7 +11682,7 @@
         <v>5.2073999999992902</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>19</v>
       </c>
@@ -11674,7 +11711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -11703,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -11732,7 +11769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F258">
         <v>0.56000000000000005</v>
       </c>
@@ -11746,7 +11783,7 @@
         <v>5.7100999999992998</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -11775,7 +11812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -11804,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -11833,7 +11870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F262">
         <v>0.56000000000000005</v>
       </c>
@@ -11847,7 +11884,7 @@
         <v>5.7100999999992998</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>20</v>
       </c>
@@ -11876,7 +11913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>20</v>
       </c>
@@ -11905,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -11934,7 +11971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F266">
         <v>0.56000000000000005</v>
       </c>
@@ -11948,7 +11985,7 @@
         <v>6.0100999999993601</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>21</v>
       </c>
@@ -11977,7 +12014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>21</v>
       </c>
@@ -12006,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -12035,7 +12072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F270">
         <v>0.56000000000000005</v>
       </c>
@@ -12049,7 +12086,7 @@
         <v>6.0100999999993601</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>21</v>
       </c>
@@ -12078,7 +12115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>21</v>
       </c>
@@ -12107,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -12136,7 +12173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F274">
         <v>0.56000000000000005</v>
       </c>
@@ -12150,7 +12187,7 @@
         <v>5.9124999999992598</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>25</v>
       </c>
@@ -12179,7 +12216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>25</v>
       </c>
@@ -12208,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -12237,7 +12274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F278">
         <v>0.56000000000000005</v>
       </c>
@@ -12251,7 +12288,7 @@
         <v>5.9124999999992598</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>25</v>
       </c>
@@ -12280,7 +12317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>25</v>
       </c>
@@ -12309,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -12338,7 +12375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F282">
         <v>0.56000000000000005</v>
       </c>
@@ -12352,7 +12389,7 @@
         <v>5.4092999999992504</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>26</v>
       </c>
@@ -12381,7 +12418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>26</v>
       </c>
@@ -12410,7 +12447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -12439,7 +12476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F286">
         <v>0.56000000000000005</v>
       </c>
@@ -12453,7 +12490,7 @@
         <v>5.4092999999992504</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>26</v>
       </c>
@@ -12482,7 +12519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>26</v>
       </c>
@@ -12511,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -12540,7 +12577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F290">
         <v>0.56000000000000005</v>
       </c>
@@ -12554,7 +12591,7 @@
         <v>5.8288999999993401</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>27</v>
       </c>
@@ -12583,7 +12620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>27</v>
       </c>
@@ -12612,7 +12649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -12641,7 +12678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F294">
         <v>0.56000000000000005</v>
       </c>
@@ -12655,7 +12692,7 @@
         <v>5.8288999999993401</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>27</v>
       </c>
@@ -12684,7 +12721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>27</v>
       </c>
@@ -12713,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -12742,7 +12779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F298">
         <v>0.56000000000000005</v>
       </c>
@@ -12756,7 +12793,7 @@
         <v>6.2113999999992604</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>28</v>
       </c>
@@ -12785,7 +12822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>28</v>
       </c>
@@ -12814,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -12843,7 +12880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F302">
         <v>0.56000000000000005</v>
       </c>
@@ -12857,7 +12894,7 @@
         <v>6.2113999999992604</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>28</v>
       </c>
@@ -12886,7 +12923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>28</v>
       </c>
@@ -12915,7 +12952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -12944,7 +12981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F306">
         <v>0.56000000000000005</v>
       </c>
@@ -12958,7 +12995,7 @@
         <v>5.80869999999938</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>29</v>
       </c>
@@ -12987,7 +13024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>29</v>
       </c>
@@ -13016,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -13045,7 +13082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F310">
         <v>0.56000000000000005</v>
       </c>
@@ -13059,7 +13096,7 @@
         <v>5.80869999999938</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>29</v>
       </c>
@@ -13088,7 +13125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>29</v>
       </c>
@@ -13117,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -13146,7 +13183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F314">
         <v>0.56000000000000005</v>
       </c>
@@ -13160,7 +13197,7 @@
         <v>5.8071999999993</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>30</v>
       </c>
@@ -13189,7 +13226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>30</v>
       </c>
@@ -13218,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -13247,7 +13284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F318">
         <v>0.56000000000000005</v>
       </c>
@@ -13261,7 +13298,7 @@
         <v>5.8071999999993</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>30</v>
       </c>
@@ -13290,7 +13327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>30</v>
       </c>
@@ -13319,7 +13356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>0</v>
       </c>
@@ -13351,7 +13388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F322">
         <v>0.56000000000000005</v>
       </c>
@@ -13368,7 +13405,7 @@
         <v>5.3913999999999804</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>51</v>
       </c>
@@ -13400,7 +13437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>51</v>
       </c>
@@ -13432,7 +13469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>0</v>
       </c>
@@ -13464,7 +13501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F326">
         <v>0.56000000000000005</v>
       </c>
@@ -13481,7 +13518,7 @@
         <v>5.3913999999999804</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>51</v>
       </c>
@@ -13513,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>51</v>
       </c>
@@ -13545,7 +13582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>0</v>
       </c>
@@ -13577,7 +13614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F330">
         <v>0.56000000000000005</v>
       </c>
@@ -13594,7 +13631,7 @@
         <v>1.7325999999999899</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>52</v>
       </c>
@@ -13626,7 +13663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>52</v>
       </c>
@@ -13658,7 +13695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>0</v>
       </c>
@@ -13690,7 +13727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F334">
         <v>0.56000000000000005</v>
       </c>
@@ -13707,7 +13744,7 @@
         <v>1.7325999999999899</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>52</v>
       </c>
@@ -13739,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>52</v>
       </c>
@@ -13771,7 +13808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>0</v>
       </c>
@@ -13803,7 +13840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F338">
         <v>0.56000000000000005</v>
       </c>
@@ -13820,7 +13857,7 @@
         <v>1.25029999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>53</v>
       </c>
@@ -13852,7 +13889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>53</v>
       </c>
@@ -13884,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>0</v>
       </c>
@@ -13916,7 +13953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F342">
         <v>0.56000000000000005</v>
       </c>
@@ -13933,7 +13970,7 @@
         <v>1.25029999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>53</v>
       </c>
@@ -13965,7 +14002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>53</v>
       </c>
@@ -13997,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>0</v>
       </c>
@@ -14029,7 +14066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F346">
         <v>0.56000000000000005</v>
       </c>
@@ -14046,7 +14083,7 @@
         <v>6.5949999999999998</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>54</v>
       </c>
@@ -14078,7 +14115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>54</v>
       </c>
@@ -14110,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>0</v>
       </c>
@@ -14142,7 +14179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F350">
         <v>0.56000000000000005</v>
       </c>
@@ -14159,7 +14196,7 @@
         <v>6.5949999999999998</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>54</v>
       </c>
@@ -14191,7 +14228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>54</v>
       </c>
@@ -14223,7 +14260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>0</v>
       </c>
@@ -14255,7 +14292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F354">
         <v>0.56000000000000005</v>
       </c>
@@ -14272,7 +14309,7 @@
         <v>5.5023999999999802</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>55</v>
       </c>
@@ -14304,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>55</v>
       </c>
@@ -14336,7 +14373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>0</v>
       </c>
@@ -14368,7 +14405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F358">
         <v>0.56000000000000005</v>
       </c>
@@ -14385,7 +14422,7 @@
         <v>5.5023999999999802</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>55</v>
       </c>
@@ -14417,7 +14454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>55</v>
       </c>
@@ -14449,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>0</v>
       </c>
@@ -14481,7 +14518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F362">
         <v>0.56000000000000005</v>
       </c>
@@ -14498,7 +14535,7 @@
         <v>0.29720000000001101</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>56</v>
       </c>
@@ -14530,7 +14567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>56</v>
       </c>
@@ -14562,7 +14599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>0</v>
       </c>
@@ -14594,7 +14631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F366">
         <v>0.56000000000000005</v>
       </c>
@@ -14611,7 +14648,7 @@
         <v>0.29720000000001101</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>56</v>
       </c>
@@ -14643,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>56</v>
       </c>
@@ -14675,7 +14712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>0</v>
       </c>
@@ -14707,7 +14744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F370">
         <v>0.56000000000000005</v>
       </c>
@@ -14724,7 +14761,7 @@
         <v>6.4518000000000004</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>57</v>
       </c>
@@ -14756,7 +14793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>57</v>
       </c>
@@ -14788,7 +14825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>0</v>
       </c>
@@ -14820,7 +14857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F374">
         <v>0.56000000000000005</v>
       </c>
@@ -14837,7 +14874,7 @@
         <v>6.4518000000000004</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>57</v>
       </c>
@@ -14869,7 +14906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>57</v>
       </c>
@@ -14901,7 +14938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>0</v>
       </c>
@@ -14933,7 +14970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F378">
         <v>0.56000000000000005</v>
       </c>
@@ -14950,7 +14987,7 @@
         <v>0.51670000000000504</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>58</v>
       </c>
@@ -14982,7 +15019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>58</v>
       </c>
@@ -15014,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>0</v>
       </c>
@@ -15046,7 +15083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F382">
         <v>0.56000000000000005</v>
       </c>
@@ -15063,7 +15100,7 @@
         <v>0.51670000000000504</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>58</v>
       </c>
@@ -15095,7 +15132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>58</v>
       </c>
@@ -15127,7 +15164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>0</v>
       </c>
@@ -15159,7 +15196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F386">
         <v>0.56000000000000005</v>
       </c>
@@ -15176,7 +15213,7 @@
         <v>1.1228</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>59</v>
       </c>
@@ -15208,7 +15245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>59</v>
       </c>
@@ -15240,7 +15277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>0</v>
       </c>
@@ -15272,7 +15309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F390">
         <v>0.56000000000000005</v>
       </c>
@@ -15289,7 +15326,7 @@
         <v>1.1228</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>59</v>
       </c>
@@ -15321,7 +15358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>59</v>
       </c>
@@ -15353,7 +15390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>0</v>
       </c>
@@ -15385,7 +15422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F394">
         <v>0.56000000000000005</v>
       </c>
@@ -15402,7 +15439,7 @@
         <v>0.882000000000013</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>60</v>
       </c>
@@ -15434,7 +15471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>60</v>
       </c>
@@ -15466,7 +15503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>0</v>
       </c>
@@ -15498,7 +15535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F398">
         <v>0.56000000000000005</v>
       </c>
@@ -15515,7 +15552,7 @@
         <v>0.882000000000013</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>60</v>
       </c>
@@ -15547,7 +15584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>60</v>
       </c>
@@ -15579,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>0</v>
       </c>
@@ -15608,7 +15645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F402">
         <v>0.56000000000000005</v>
       </c>
@@ -15622,7 +15659,7 @@
         <v>5.9076999999993003</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>61</v>
       </c>
@@ -15651,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>61</v>
       </c>
@@ -15680,7 +15717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>0</v>
       </c>
@@ -15709,7 +15746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F406">
         <v>0.56000000000000005</v>
       </c>
@@ -15723,7 +15760,7 @@
         <v>5.9076999999993003</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>61</v>
       </c>
@@ -15752,7 +15789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>61</v>
       </c>
@@ -15781,7 +15818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>0</v>
       </c>
@@ -15810,7 +15847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F410">
         <v>0.56000000000000005</v>
       </c>
@@ -15824,7 +15861,7 @@
         <v>5.8045999999992901</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>62</v>
       </c>
@@ -15853,7 +15890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>62</v>
       </c>
@@ -15882,7 +15919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>0</v>
       </c>
@@ -15911,7 +15948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F414">
         <v>0.56000000000000005</v>
       </c>
@@ -15925,7 +15962,7 @@
         <v>5.8045999999992901</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>62</v>
       </c>
@@ -15954,7 +15991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>62</v>
       </c>
@@ -15983,7 +16020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>0</v>
       </c>
@@ -16012,7 +16049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F418">
         <v>0.56000000000000005</v>
       </c>
@@ -16026,7 +16063,7 @@
         <v>6.2077999999993301</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>63</v>
       </c>
@@ -16055,7 +16092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>63</v>
       </c>
@@ -16084,7 +16121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>0</v>
       </c>
@@ -16113,7 +16150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F422">
         <v>0.56000000000000005</v>
       </c>
@@ -16127,7 +16164,7 @@
         <v>6.2077999999993301</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>63</v>
       </c>
@@ -16156,7 +16193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>63</v>
       </c>
@@ -16185,7 +16222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>0</v>
       </c>
@@ -16214,7 +16251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F426">
         <v>0.56000000000000005</v>
       </c>
@@ -16228,7 +16265,7 @@
         <v>5.7055999999993503</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>64</v>
       </c>
@@ -16257,7 +16294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>64</v>
       </c>
@@ -16286,7 +16323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>0</v>
       </c>
@@ -16315,7 +16352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F430">
         <v>0.56000000000000005</v>
       </c>
@@ -16329,7 +16366,7 @@
         <v>5.7055999999993503</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>64</v>
       </c>
@@ -16358,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>64</v>
       </c>
@@ -16387,7 +16424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>0</v>
       </c>
@@ -16416,7 +16453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F434">
         <v>0.56000000000000005</v>
       </c>
@@ -16430,7 +16467,7 @@
         <v>5.8050999999993396</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>65</v>
       </c>
@@ -16459,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>65</v>
       </c>
@@ -16488,7 +16525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>0</v>
       </c>
@@ -16517,7 +16554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F438">
         <v>0.56000000000000005</v>
       </c>
@@ -16531,7 +16568,7 @@
         <v>5.8050999999993396</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>65</v>
       </c>
@@ -16560,7 +16597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>65</v>
       </c>
@@ -16589,7 +16626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>0</v>
       </c>
@@ -16618,7 +16655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F442">
         <v>0.56000000000000005</v>
       </c>
@@ -16632,7 +16669,7 @@
         <v>6.1164999999994496</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>66</v>
       </c>
@@ -16661,7 +16698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>66</v>
       </c>
@@ -16690,7 +16727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>0</v>
       </c>
@@ -16719,7 +16756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F446">
         <v>0.56000000000000005</v>
       </c>
@@ -16733,7 +16770,7 @@
         <v>6.1164999999994496</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>66</v>
       </c>
@@ -16762,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>66</v>
       </c>
@@ -16791,7 +16828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>0</v>
       </c>
@@ -16820,7 +16857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F450">
         <v>0.56000000000000005</v>
       </c>
@@ -16834,7 +16871,7 @@
         <v>5.80759999999934</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>67</v>
       </c>
@@ -16863,7 +16900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>67</v>
       </c>
@@ -16892,7 +16929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>0</v>
       </c>
@@ -16921,7 +16958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F454">
         <v>0.56000000000000005</v>
       </c>
@@ -16935,7 +16972,7 @@
         <v>5.80759999999934</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>67</v>
       </c>
@@ -16964,7 +17001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>67</v>
       </c>
@@ -16993,7 +17030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>0</v>
       </c>
@@ -17022,7 +17059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F458">
         <v>0.56000000000000005</v>
       </c>
@@ -17036,7 +17073,7 @@
         <v>5.8085999999993501</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>68</v>
       </c>
@@ -17065,7 +17102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>68</v>
       </c>
@@ -17094,7 +17131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>0</v>
       </c>
@@ -17123,7 +17160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F462">
         <v>0.56000000000000005</v>
       </c>
@@ -17137,7 +17174,7 @@
         <v>5.8085999999993501</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>68</v>
       </c>
@@ -17166,7 +17203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>68</v>
       </c>
@@ -17195,7 +17232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>0</v>
       </c>
@@ -17224,7 +17261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F466">
         <v>0.56000000000000005</v>
       </c>
@@ -17238,7 +17275,7 @@
         <v>5.8019999999993797</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>69</v>
       </c>
@@ -17267,7 +17304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>69</v>
       </c>
@@ -17296,7 +17333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>0</v>
       </c>
@@ -17325,7 +17362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F470">
         <v>0.56000000000000005</v>
       </c>
@@ -17339,7 +17376,7 @@
         <v>5.8019999999993797</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>69</v>
       </c>
@@ -17368,7 +17405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>69</v>
       </c>
@@ -17397,7 +17434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>0</v>
       </c>
@@ -17426,7 +17463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F474">
         <v>0.56000000000000005</v>
       </c>
@@ -17440,7 +17477,7 @@
         <v>6.0096999999992899</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>70</v>
       </c>
@@ -17469,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>70</v>
       </c>
@@ -17498,7 +17535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>0</v>
       </c>
@@ -17527,7 +17564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F478">
         <v>0.56000000000000005</v>
       </c>
@@ -17541,7 +17578,7 @@
         <v>6.0096999999992899</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>70</v>
       </c>
@@ -17570,7 +17607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>70</v>
       </c>
@@ -17599,7 +17636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482">
         <f>480/4</f>
         <v>120</v>
@@ -17614,21 +17651,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8816743-55BC-47DB-894C-0BA34DFAD590}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17657,7 +17694,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -17686,7 +17723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -17715,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -17744,7 +17781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -17773,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -17802,7 +17839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -17831,7 +17868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -17860,7 +17897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -17889,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -17912,7 +17949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -17935,7 +17972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
@@ -17958,7 +17995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
@@ -17981,7 +18018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
@@ -18004,7 +18041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -18027,90 +18064,353 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:I9 A2:G3 A4:D4 F4:G4 A5:G9 B10:C15 F10:I15 A10:A30">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BB6AF4-8B0E-F242-B5C7-6B043183F95B}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Combo/Alternations.xlsx
+++ b/Combo/Alternations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairemoore-cantwell/GitHub/GSR_Learning/Combo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moore-cantwell\GSRs\Combo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47E512C-C2EB-EC43-B1E9-BFB6DA1B94D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03241F9B-B61E-4F07-A41E-879C045A67FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" activeTab="3" xr2:uid="{888022E4-214E-4A4A-BFD9-04B72A4824A8}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16035" xr2:uid="{888022E4-214E-4A4A-BFD9-04B72A4824A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Voicing_3types" sheetId="1" r:id="rId1"/>
@@ -23,21 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="117">
   <si>
     <t>input</t>
   </si>
@@ -385,6 +376,9 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Faith_listed</t>
   </si>
 </sst>
 </file>
@@ -1259,20 +1253,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9207142-EE2D-4124-B143-5BB5C7C35764}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,8 +1294,11 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1329,8 +1326,11 @@
       <c r="I2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1358,8 +1358,11 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1387,8 +1390,11 @@
       <c r="I4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1416,8 +1422,11 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1445,8 +1454,11 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1474,8 +1486,11 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1503,8 +1518,11 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1532,8 +1550,11 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1561,8 +1582,11 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1590,8 +1614,11 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1646,11 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1648,8 +1678,11 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1677,8 +1710,11 @@
       <c r="I14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1706,8 +1742,11 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1735,8 +1774,11 @@
       <c r="I16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1764,8 +1806,11 @@
       <c r="I17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1793,8 +1838,11 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1822,8 +1870,11 @@
       <c r="I19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1851,8 +1902,11 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1880,8 +1934,11 @@
       <c r="I21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1909,8 +1966,11 @@
       <c r="I22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1938,8 +1998,11 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1967,8 +2030,11 @@
       <c r="I24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1996,8 +2062,11 @@
       <c r="I25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -2025,8 +2094,11 @@
       <c r="I26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2126,11 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -2083,8 +2158,11 @@
       <c r="I28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -2112,8 +2190,11 @@
       <c r="I29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2141,8 +2222,11 @@
       <c r="I30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -2170,8 +2254,11 @@
       <c r="I31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -2199,8 +2286,11 @@
       <c r="I32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -2228,8 +2318,11 @@
       <c r="I33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -2257,8 +2350,11 @@
       <c r="I34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -2286,8 +2382,11 @@
       <c r="I35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -2315,8 +2414,11 @@
       <c r="I36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -2344,8 +2446,11 @@
       <c r="I37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -2373,8 +2478,11 @@
       <c r="I38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -2402,8 +2510,11 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2431,8 +2542,11 @@
       <c r="I40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2460,8 +2574,11 @@
       <c r="I41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -2489,8 +2606,11 @@
       <c r="I42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -2518,8 +2638,11 @@
       <c r="I43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -2547,8 +2670,11 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
@@ -2576,8 +2702,11 @@
       <c r="I45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
@@ -2605,8 +2734,11 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
@@ -2634,8 +2766,11 @@
       <c r="I47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -2663,8 +2798,11 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>44</v>
       </c>
@@ -2692,8 +2830,11 @@
       <c r="I49" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
@@ -2721,8 +2862,11 @@
       <c r="I50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -2750,8 +2894,11 @@
       <c r="I51" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -2779,8 +2926,11 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>46</v>
       </c>
@@ -2808,8 +2958,11 @@
       <c r="I53" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
@@ -2837,8 +2990,11 @@
       <c r="I54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>47</v>
       </c>
@@ -2866,8 +3022,11 @@
       <c r="I55" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>48</v>
       </c>
@@ -2895,8 +3054,11 @@
       <c r="I56" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>48</v>
       </c>
@@ -2924,8 +3086,11 @@
       <c r="I57" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>49</v>
       </c>
@@ -2953,8 +3118,11 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>49</v>
       </c>
@@ -2982,8 +3150,11 @@
       <c r="I59" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>50</v>
       </c>
@@ -3011,8 +3182,11 @@
       <c r="I60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>50</v>
       </c>
@@ -3040,8 +3214,11 @@
       <c r="I61" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>18</v>
       </c>
@@ -3069,8 +3246,11 @@
       <c r="I62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>18</v>
       </c>
@@ -3098,8 +3278,11 @@
       <c r="I63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3127,8 +3310,11 @@
       <c r="I64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>19</v>
       </c>
@@ -3156,8 +3342,11 @@
       <c r="I65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -3185,8 +3374,11 @@
       <c r="I66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -3214,8 +3406,11 @@
       <c r="I67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
@@ -3243,8 +3438,11 @@
       <c r="I68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -3272,8 +3470,11 @@
       <c r="I69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -3301,8 +3502,11 @@
       <c r="I70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -3330,8 +3534,11 @@
       <c r="I71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -3359,8 +3566,11 @@
       <c r="I72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -3388,8 +3598,11 @@
       <c r="I73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>27</v>
       </c>
@@ -3417,8 +3630,11 @@
       <c r="I74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
@@ -3446,8 +3662,11 @@
       <c r="I75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>28</v>
       </c>
@@ -3475,8 +3694,11 @@
       <c r="I76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>28</v>
       </c>
@@ -3504,8 +3726,11 @@
       <c r="I77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
@@ -3533,8 +3758,11 @@
       <c r="I78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -3562,8 +3790,11 @@
       <c r="I79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>30</v>
       </c>
@@ -3591,8 +3822,11 @@
       <c r="I80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>30</v>
       </c>
@@ -3620,8 +3854,11 @@
       <c r="I81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>51</v>
       </c>
@@ -3649,8 +3886,11 @@
       <c r="I82" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>51</v>
       </c>
@@ -3678,8 +3918,11 @@
       <c r="I83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>52</v>
       </c>
@@ -3707,8 +3950,11 @@
       <c r="I84" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>52</v>
       </c>
@@ -3736,8 +3982,11 @@
       <c r="I85" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>53</v>
       </c>
@@ -3765,8 +4014,11 @@
       <c r="I86" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +4046,11 @@
       <c r="I87" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>54</v>
       </c>
@@ -3823,8 +4078,11 @@
       <c r="I88" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>54</v>
       </c>
@@ -3852,8 +4110,11 @@
       <c r="I89" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>55</v>
       </c>
@@ -3881,8 +4142,11 @@
       <c r="I90" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>55</v>
       </c>
@@ -3910,8 +4174,11 @@
       <c r="I91" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>56</v>
       </c>
@@ -3939,8 +4206,11 @@
       <c r="I92" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>56</v>
       </c>
@@ -3968,8 +4238,11 @@
       <c r="I93" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>57</v>
       </c>
@@ -3997,8 +4270,11 @@
       <c r="I94" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>57</v>
       </c>
@@ -4026,8 +4302,11 @@
       <c r="I95" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>58</v>
       </c>
@@ -4055,8 +4334,11 @@
       <c r="I96" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>58</v>
       </c>
@@ -4084,8 +4366,11 @@
       <c r="I97" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>59</v>
       </c>
@@ -4113,8 +4398,11 @@
       <c r="I98" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>59</v>
       </c>
@@ -4142,8 +4430,11 @@
       <c r="I99" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>60</v>
       </c>
@@ -4171,8 +4462,11 @@
       <c r="I100" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>60</v>
       </c>
@@ -4200,8 +4494,11 @@
       <c r="I101" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>61</v>
       </c>
@@ -4229,8 +4526,11 @@
       <c r="I102" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>61</v>
       </c>
@@ -4258,8 +4558,11 @@
       <c r="I103" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>62</v>
       </c>
@@ -4287,8 +4590,11 @@
       <c r="I104" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>62</v>
       </c>
@@ -4316,8 +4622,11 @@
       <c r="I105" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>63</v>
       </c>
@@ -4345,8 +4654,11 @@
       <c r="I106" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>63</v>
       </c>
@@ -4374,8 +4686,11 @@
       <c r="I107" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>64</v>
       </c>
@@ -4403,8 +4718,11 @@
       <c r="I108" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>64</v>
       </c>
@@ -4432,8 +4750,11 @@
       <c r="I109" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>65</v>
       </c>
@@ -4461,8 +4782,11 @@
       <c r="I110" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>65</v>
       </c>
@@ -4490,8 +4814,11 @@
       <c r="I111" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>66</v>
       </c>
@@ -4519,8 +4846,11 @@
       <c r="I112" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>66</v>
       </c>
@@ -4548,8 +4878,11 @@
       <c r="I113" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>67</v>
       </c>
@@ -4577,8 +4910,11 @@
       <c r="I114" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>67</v>
       </c>
@@ -4606,8 +4942,11 @@
       <c r="I115" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>68</v>
       </c>
@@ -4635,8 +4974,11 @@
       <c r="I116" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>68</v>
       </c>
@@ -4664,8 +5006,11 @@
       <c r="I117" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>69</v>
       </c>
@@ -4693,8 +5038,11 @@
       <c r="I118" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>69</v>
       </c>
@@ -4722,8 +5070,11 @@
       <c r="I119" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>70</v>
       </c>
@@ -4751,8 +5102,11 @@
       <c r="I120" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>70</v>
       </c>
@@ -4778,6 +5132,9 @@
         <v>1</v>
       </c>
       <c r="I121" s="3">
+        <v>1</v>
+      </c>
+      <c r="J121" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4787,7 +5144,7 @@
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G21">
+  <conditionalFormatting sqref="A2:G21 J2:J21">
     <cfRule type="expression" dxfId="48" priority="49">
       <formula>"OR(C:C+I:I=2,C:C+I:I=0)"</formula>
     </cfRule>
@@ -5034,9 +5391,9 @@
       <selection activeCell="A483" sqref="A483"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5065,7 +5422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F2">
         <v>0.56000000000000005</v>
       </c>
@@ -5079,7 +5436,7 @@
         <v>6.1013999999993898</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5108,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5137,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5166,7 +5523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>0.56000000000000005</v>
       </c>
@@ -5180,7 +5537,7 @@
         <v>6.1013999999993898</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5209,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5238,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5267,7 +5624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>0.56000000000000005</v>
       </c>
@@ -5281,7 +5638,7 @@
         <v>5.2073999999992902</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5310,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5339,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -5368,7 +5725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>0.56000000000000005</v>
       </c>
@@ -5382,7 +5739,7 @@
         <v>5.2073999999992902</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -5411,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -5440,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -5469,7 +5826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>0.56000000000000005</v>
       </c>
@@ -5483,7 +5840,7 @@
         <v>5.7100999999992998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -5512,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -5541,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -5570,7 +5927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>0.56000000000000005</v>
       </c>
@@ -5584,7 +5941,7 @@
         <v>5.7100999999992998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -5613,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -5642,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -5671,7 +6028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>0.56000000000000005</v>
       </c>
@@ -5685,7 +6042,7 @@
         <v>6.0100999999993601</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -5714,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -5743,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -5772,7 +6129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>0.56000000000000005</v>
       </c>
@@ -5786,7 +6143,7 @@
         <v>6.0100999999993601</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -5815,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -5844,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -5873,7 +6230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>0.56000000000000005</v>
       </c>
@@ -5887,7 +6244,7 @@
         <v>5.9124999999992598</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -5916,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -5945,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -5974,7 +6331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F38">
         <v>0.56000000000000005</v>
       </c>
@@ -5988,7 +6345,7 @@
         <v>5.9124999999992598</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -6017,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -6046,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -6075,7 +6432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>0.56000000000000005</v>
       </c>
@@ -6089,7 +6446,7 @@
         <v>5.4092999999992504</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -6118,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -6147,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -6176,7 +6533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F46">
         <v>0.56000000000000005</v>
       </c>
@@ -6190,7 +6547,7 @@
         <v>5.4092999999992504</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -6219,7 +6576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -6248,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -6277,7 +6634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>0.56000000000000005</v>
       </c>
@@ -6291,7 +6648,7 @@
         <v>5.8288999999993401</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -6320,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -6349,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -6378,7 +6735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>0.56000000000000005</v>
       </c>
@@ -6392,7 +6749,7 @@
         <v>5.8288999999993401</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -6421,7 +6778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -6450,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -6479,7 +6836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>0.56000000000000005</v>
       </c>
@@ -6493,7 +6850,7 @@
         <v>6.2113999999992604</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -6522,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -6551,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -6580,7 +6937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>0.56000000000000005</v>
       </c>
@@ -6594,7 +6951,7 @@
         <v>6.2113999999992604</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -6623,7 +6980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -6652,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -6681,7 +7038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>0.56000000000000005</v>
       </c>
@@ -6695,7 +7052,7 @@
         <v>5.80869999999938</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -6724,7 +7081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -6753,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -6782,7 +7139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F70">
         <v>0.56000000000000005</v>
       </c>
@@ -6796,7 +7153,7 @@
         <v>5.80869999999938</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -6825,7 +7182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -6854,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -6883,7 +7240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F74">
         <v>0.56000000000000005</v>
       </c>
@@ -6897,7 +7254,7 @@
         <v>5.8071999999993</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -6926,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -6955,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -6984,7 +7341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F78">
         <v>0.56000000000000005</v>
       </c>
@@ -6998,7 +7355,7 @@
         <v>5.8071999999993</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -7027,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -7056,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -7088,7 +7445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F82">
         <v>0.56000000000000005</v>
       </c>
@@ -7105,7 +7462,7 @@
         <v>5.3913999999999804</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>31</v>
       </c>
@@ -7137,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>31</v>
       </c>
@@ -7169,7 +7526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -7201,7 +7558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F86">
         <v>0.56000000000000005</v>
       </c>
@@ -7218,7 +7575,7 @@
         <v>5.3913999999999804</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>31</v>
       </c>
@@ -7250,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -7282,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -7314,7 +7671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F90">
         <v>0.56000000000000005</v>
       </c>
@@ -7331,7 +7688,7 @@
         <v>1.7325999999999899</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -7363,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -7395,7 +7752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -7427,7 +7784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F94">
         <v>0.56000000000000005</v>
       </c>
@@ -7444,7 +7801,7 @@
         <v>1.7325999999999899</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>32</v>
       </c>
@@ -7476,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -7508,7 +7865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -7540,7 +7897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F98">
         <v>0.56000000000000005</v>
       </c>
@@ -7557,7 +7914,7 @@
         <v>1.25029999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -7589,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -7621,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -7653,7 +8010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F102">
         <v>0.56000000000000005</v>
       </c>
@@ -7670,7 +8027,7 @@
         <v>1.25029999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -7702,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -7734,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -7766,7 +8123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F106">
         <v>0.56000000000000005</v>
       </c>
@@ -7783,7 +8140,7 @@
         <v>6.5949999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>34</v>
       </c>
@@ -7815,7 +8172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -7847,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -7879,7 +8236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F110">
         <v>0.56000000000000005</v>
       </c>
@@ -7896,7 +8253,7 @@
         <v>6.5949999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>34</v>
       </c>
@@ -7928,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -7960,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -7992,7 +8349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F114">
         <v>0.56000000000000005</v>
       </c>
@@ -8009,7 +8366,7 @@
         <v>5.5023999999999802</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -8041,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>35</v>
       </c>
@@ -8073,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -8105,7 +8462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F118">
         <v>0.56000000000000005</v>
       </c>
@@ -8122,7 +8479,7 @@
         <v>5.5023999999999802</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>35</v>
       </c>
@@ -8154,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>35</v>
       </c>
@@ -8186,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -8218,7 +8575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F122">
         <v>0.56000000000000005</v>
       </c>
@@ -8235,7 +8592,7 @@
         <v>0.29720000000001101</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -8267,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -8299,7 +8656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -8331,7 +8688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F126">
         <v>0.56000000000000005</v>
       </c>
@@ -8348,7 +8705,7 @@
         <v>0.29720000000001101</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -8380,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -8412,7 +8769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -8444,7 +8801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F130">
         <v>0.56000000000000005</v>
       </c>
@@ -8461,7 +8818,7 @@
         <v>6.4518000000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -8493,7 +8850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -8525,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -8557,7 +8914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F134">
         <v>0.56000000000000005</v>
       </c>
@@ -8574,7 +8931,7 @@
         <v>6.4518000000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -8606,7 +8963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -8638,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -8670,7 +9027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F138">
         <v>0.56000000000000005</v>
       </c>
@@ -8687,7 +9044,7 @@
         <v>0.51670000000000504</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>38</v>
       </c>
@@ -8719,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -8751,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -8783,7 +9140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F142">
         <v>0.56000000000000005</v>
       </c>
@@ -8800,7 +9157,7 @@
         <v>0.51670000000000504</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -8832,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -8864,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -8896,7 +9253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F146">
         <v>0.56000000000000005</v>
       </c>
@@ -8913,7 +9270,7 @@
         <v>1.1228</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -8945,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -8977,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -9009,7 +9366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F150">
         <v>0.56000000000000005</v>
       </c>
@@ -9026,7 +9383,7 @@
         <v>1.1228</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>39</v>
       </c>
@@ -9058,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -9090,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -9122,7 +9479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F154">
         <v>0.56000000000000005</v>
       </c>
@@ -9139,7 +9496,7 @@
         <v>0.882000000000013</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -9171,7 +9528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -9203,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -9235,7 +9592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F158">
         <v>0.56000000000000005</v>
       </c>
@@ -9252,7 +9609,7 @@
         <v>0.882000000000013</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>40</v>
       </c>
@@ -9284,7 +9641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>40</v>
       </c>
@@ -9316,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -9345,7 +9702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F162">
         <v>0.56000000000000005</v>
       </c>
@@ -9359,7 +9716,7 @@
         <v>5.9076999999993003</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>41</v>
       </c>
@@ -9388,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>41</v>
       </c>
@@ -9417,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -9446,7 +9803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F166">
         <v>0.56000000000000005</v>
       </c>
@@ -9460,7 +9817,7 @@
         <v>5.9076999999993003</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>41</v>
       </c>
@@ -9489,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>41</v>
       </c>
@@ -9518,7 +9875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -9547,7 +9904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F170">
         <v>0.56000000000000005</v>
       </c>
@@ -9561,7 +9918,7 @@
         <v>5.8045999999992901</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>42</v>
       </c>
@@ -9590,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -9619,7 +9976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -9648,7 +10005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F174">
         <v>0.56000000000000005</v>
       </c>
@@ -9662,7 +10019,7 @@
         <v>5.8045999999992901</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -9691,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>42</v>
       </c>
@@ -9720,7 +10077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -9749,7 +10106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F178">
         <v>0.56000000000000005</v>
       </c>
@@ -9763,7 +10120,7 @@
         <v>6.2077999999993301</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>43</v>
       </c>
@@ -9792,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>43</v>
       </c>
@@ -9821,7 +10178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -9850,7 +10207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F182">
         <v>0.56000000000000005</v>
       </c>
@@ -9864,7 +10221,7 @@
         <v>6.2077999999993301</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>43</v>
       </c>
@@ -9893,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>43</v>
       </c>
@@ -9922,7 +10279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -9951,7 +10308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F186">
         <v>0.56000000000000005</v>
       </c>
@@ -9965,7 +10322,7 @@
         <v>5.7055999999993503</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>44</v>
       </c>
@@ -9994,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>44</v>
       </c>
@@ -10023,7 +10380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -10052,7 +10409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F190">
         <v>0.56000000000000005</v>
       </c>
@@ -10066,7 +10423,7 @@
         <v>5.7055999999993503</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>44</v>
       </c>
@@ -10095,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>44</v>
       </c>
@@ -10124,7 +10481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -10153,7 +10510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F194">
         <v>0.56000000000000005</v>
       </c>
@@ -10167,7 +10524,7 @@
         <v>5.8050999999993396</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>45</v>
       </c>
@@ -10196,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>45</v>
       </c>
@@ -10225,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -10254,7 +10611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F198">
         <v>0.56000000000000005</v>
       </c>
@@ -10268,7 +10625,7 @@
         <v>5.8050999999993396</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>45</v>
       </c>
@@ -10297,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>45</v>
       </c>
@@ -10326,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -10355,7 +10712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F202">
         <v>0.56000000000000005</v>
       </c>
@@ -10369,7 +10726,7 @@
         <v>6.1164999999994496</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>46</v>
       </c>
@@ -10398,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>46</v>
       </c>
@@ -10427,7 +10784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -10456,7 +10813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F206">
         <v>0.56000000000000005</v>
       </c>
@@ -10470,7 +10827,7 @@
         <v>6.1164999999994496</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>46</v>
       </c>
@@ -10499,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>46</v>
       </c>
@@ -10528,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -10557,7 +10914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F210">
         <v>0.56000000000000005</v>
       </c>
@@ -10571,7 +10928,7 @@
         <v>5.80759999999934</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>47</v>
       </c>
@@ -10600,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>47</v>
       </c>
@@ -10629,7 +10986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -10658,7 +11015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F214">
         <v>0.56000000000000005</v>
       </c>
@@ -10672,7 +11029,7 @@
         <v>5.80759999999934</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>47</v>
       </c>
@@ -10701,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>47</v>
       </c>
@@ -10730,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -10759,7 +11116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F218">
         <v>0.56000000000000005</v>
       </c>
@@ -10773,7 +11130,7 @@
         <v>5.8085999999993501</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>48</v>
       </c>
@@ -10802,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>48</v>
       </c>
@@ -10831,7 +11188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -10860,7 +11217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F222">
         <v>0.56000000000000005</v>
       </c>
@@ -10874,7 +11231,7 @@
         <v>5.8085999999993501</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>48</v>
       </c>
@@ -10903,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>48</v>
       </c>
@@ -10932,7 +11289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -10961,7 +11318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F226">
         <v>0.56000000000000005</v>
       </c>
@@ -10975,7 +11332,7 @@
         <v>5.8019999999993797</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>49</v>
       </c>
@@ -11004,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>49</v>
       </c>
@@ -11033,7 +11390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -11062,7 +11419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F230">
         <v>0.56000000000000005</v>
       </c>
@@ -11076,7 +11433,7 @@
         <v>5.8019999999993797</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>49</v>
       </c>
@@ -11105,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>49</v>
       </c>
@@ -11134,7 +11491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -11163,7 +11520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F234">
         <v>0.56000000000000005</v>
       </c>
@@ -11177,7 +11534,7 @@
         <v>6.0096999999992899</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>50</v>
       </c>
@@ -11206,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>50</v>
       </c>
@@ -11235,7 +11592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -11264,7 +11621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F238">
         <v>0.56000000000000005</v>
       </c>
@@ -11278,7 +11635,7 @@
         <v>6.0096999999992899</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>50</v>
       </c>
@@ -11307,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>50</v>
       </c>
@@ -11336,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -11365,7 +11722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F242">
         <v>0.56000000000000005</v>
       </c>
@@ -11379,7 +11736,7 @@
         <v>6.1013999999993898</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>18</v>
       </c>
@@ -11408,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>18</v>
       </c>
@@ -11437,7 +11794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -11466,7 +11823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F246">
         <v>0.56000000000000005</v>
       </c>
@@ -11480,7 +11837,7 @@
         <v>6.1013999999993898</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>18</v>
       </c>
@@ -11509,7 +11866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>18</v>
       </c>
@@ -11538,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -11567,7 +11924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F250">
         <v>0.56000000000000005</v>
       </c>
@@ -11581,7 +11938,7 @@
         <v>5.2073999999992902</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>19</v>
       </c>
@@ -11610,7 +11967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>19</v>
       </c>
@@ -11639,7 +11996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -11668,7 +12025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F254">
         <v>0.56000000000000005</v>
       </c>
@@ -11682,7 +12039,7 @@
         <v>5.2073999999992902</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>19</v>
       </c>
@@ -11711,7 +12068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -11740,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -11769,7 +12126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F258">
         <v>0.56000000000000005</v>
       </c>
@@ -11783,7 +12140,7 @@
         <v>5.7100999999992998</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -11812,7 +12169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -11841,7 +12198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -11870,7 +12227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F262">
         <v>0.56000000000000005</v>
       </c>
@@ -11884,7 +12241,7 @@
         <v>5.7100999999992998</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>20</v>
       </c>
@@ -11913,7 +12270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>20</v>
       </c>
@@ -11942,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -11971,7 +12328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F266">
         <v>0.56000000000000005</v>
       </c>
@@ -11985,7 +12342,7 @@
         <v>6.0100999999993601</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>21</v>
       </c>
@@ -12014,7 +12371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>21</v>
       </c>
@@ -12043,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -12072,7 +12429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F270">
         <v>0.56000000000000005</v>
       </c>
@@ -12086,7 +12443,7 @@
         <v>6.0100999999993601</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>21</v>
       </c>
@@ -12115,7 +12472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>21</v>
       </c>
@@ -12144,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -12173,7 +12530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F274">
         <v>0.56000000000000005</v>
       </c>
@@ -12187,7 +12544,7 @@
         <v>5.9124999999992598</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>25</v>
       </c>
@@ -12216,7 +12573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>25</v>
       </c>
@@ -12245,7 +12602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -12274,7 +12631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F278">
         <v>0.56000000000000005</v>
       </c>
@@ -12288,7 +12645,7 @@
         <v>5.9124999999992598</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>25</v>
       </c>
@@ -12317,7 +12674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>25</v>
       </c>
@@ -12346,7 +12703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -12375,7 +12732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F282">
         <v>0.56000000000000005</v>
       </c>
@@ -12389,7 +12746,7 @@
         <v>5.4092999999992504</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>26</v>
       </c>
@@ -12418,7 +12775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>26</v>
       </c>
@@ -12447,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -12476,7 +12833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F286">
         <v>0.56000000000000005</v>
       </c>
@@ -12490,7 +12847,7 @@
         <v>5.4092999999992504</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>26</v>
       </c>
@@ -12519,7 +12876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>26</v>
       </c>
@@ -12548,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -12577,7 +12934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F290">
         <v>0.56000000000000005</v>
       </c>
@@ -12591,7 +12948,7 @@
         <v>5.8288999999993401</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>27</v>
       </c>
@@ -12620,7 +12977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>27</v>
       </c>
@@ -12649,7 +13006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -12678,7 +13035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F294">
         <v>0.56000000000000005</v>
       </c>
@@ -12692,7 +13049,7 @@
         <v>5.8288999999993401</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>27</v>
       </c>
@@ -12721,7 +13078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>27</v>
       </c>
@@ -12750,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -12779,7 +13136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F298">
         <v>0.56000000000000005</v>
       </c>
@@ -12793,7 +13150,7 @@
         <v>6.2113999999992604</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>28</v>
       </c>
@@ -12822,7 +13179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>28</v>
       </c>
@@ -12851,7 +13208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -12880,7 +13237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F302">
         <v>0.56000000000000005</v>
       </c>
@@ -12894,7 +13251,7 @@
         <v>6.2113999999992604</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>28</v>
       </c>
@@ -12923,7 +13280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>28</v>
       </c>
@@ -12952,7 +13309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -12981,7 +13338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F306">
         <v>0.56000000000000005</v>
       </c>
@@ -12995,7 +13352,7 @@
         <v>5.80869999999938</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>29</v>
       </c>
@@ -13024,7 +13381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>29</v>
       </c>
@@ -13053,7 +13410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -13082,7 +13439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F310">
         <v>0.56000000000000005</v>
       </c>
@@ -13096,7 +13453,7 @@
         <v>5.80869999999938</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>29</v>
       </c>
@@ -13125,7 +13482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>29</v>
       </c>
@@ -13154,7 +13511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -13183,7 +13540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F314">
         <v>0.56000000000000005</v>
       </c>
@@ -13197,7 +13554,7 @@
         <v>5.8071999999993</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>30</v>
       </c>
@@ -13226,7 +13583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>30</v>
       </c>
@@ -13255,7 +13612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -13284,7 +13641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F318">
         <v>0.56000000000000005</v>
       </c>
@@ -13298,7 +13655,7 @@
         <v>5.8071999999993</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>30</v>
       </c>
@@ -13327,7 +13684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>30</v>
       </c>
@@ -13356,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>0</v>
       </c>
@@ -13388,7 +13745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F322">
         <v>0.56000000000000005</v>
       </c>
@@ -13405,7 +13762,7 @@
         <v>5.3913999999999804</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>51</v>
       </c>
@@ -13437,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>51</v>
       </c>
@@ -13469,7 +13826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>0</v>
       </c>
@@ -13501,7 +13858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F326">
         <v>0.56000000000000005</v>
       </c>
@@ -13518,7 +13875,7 @@
         <v>5.3913999999999804</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>51</v>
       </c>
@@ -13550,7 +13907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>51</v>
       </c>
@@ -13582,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>0</v>
       </c>
@@ -13614,7 +13971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F330">
         <v>0.56000000000000005</v>
       </c>
@@ -13631,7 +13988,7 @@
         <v>1.7325999999999899</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>52</v>
       </c>
@@ -13663,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>52</v>
       </c>
@@ -13695,7 +14052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>0</v>
       </c>
@@ -13727,7 +14084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F334">
         <v>0.56000000000000005</v>
       </c>
@@ -13744,7 +14101,7 @@
         <v>1.7325999999999899</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>52</v>
       </c>
@@ -13776,7 +14133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>52</v>
       </c>
@@ -13808,7 +14165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>0</v>
       </c>
@@ -13840,7 +14197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F338">
         <v>0.56000000000000005</v>
       </c>
@@ -13857,7 +14214,7 @@
         <v>1.25029999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>53</v>
       </c>
@@ -13889,7 +14246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>53</v>
       </c>
@@ -13921,7 +14278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>0</v>
       </c>
@@ -13953,7 +14310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F342">
         <v>0.56000000000000005</v>
       </c>
@@ -13970,7 +14327,7 @@
         <v>1.25029999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>53</v>
       </c>
@@ -14002,7 +14359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>53</v>
       </c>
@@ -14034,7 +14391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>0</v>
       </c>
@@ -14066,7 +14423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F346">
         <v>0.56000000000000005</v>
       </c>
@@ -14083,7 +14440,7 @@
         <v>6.5949999999999998</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>54</v>
       </c>
@@ -14115,7 +14472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>54</v>
       </c>
@@ -14147,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>0</v>
       </c>
@@ -14179,7 +14536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F350">
         <v>0.56000000000000005</v>
       </c>
@@ -14196,7 +14553,7 @@
         <v>6.5949999999999998</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>54</v>
       </c>
@@ -14228,7 +14585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>54</v>
       </c>
@@ -14260,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>0</v>
       </c>
@@ -14292,7 +14649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F354">
         <v>0.56000000000000005</v>
       </c>
@@ -14309,7 +14666,7 @@
         <v>5.5023999999999802</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>55</v>
       </c>
@@ -14341,7 +14698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>55</v>
       </c>
@@ -14373,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>0</v>
       </c>
@@ -14405,7 +14762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F358">
         <v>0.56000000000000005</v>
       </c>
@@ -14422,7 +14779,7 @@
         <v>5.5023999999999802</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>55</v>
       </c>
@@ -14454,7 +14811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>55</v>
       </c>
@@ -14486,7 +14843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>0</v>
       </c>
@@ -14518,7 +14875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F362">
         <v>0.56000000000000005</v>
       </c>
@@ -14535,7 +14892,7 @@
         <v>0.29720000000001101</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>56</v>
       </c>
@@ -14567,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>56</v>
       </c>
@@ -14599,7 +14956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>0</v>
       </c>
@@ -14631,7 +14988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F366">
         <v>0.56000000000000005</v>
       </c>
@@ -14648,7 +15005,7 @@
         <v>0.29720000000001101</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>56</v>
       </c>
@@ -14680,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>56</v>
       </c>
@@ -14712,7 +15069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>0</v>
       </c>
@@ -14744,7 +15101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F370">
         <v>0.56000000000000005</v>
       </c>
@@ -14761,7 +15118,7 @@
         <v>6.4518000000000004</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>57</v>
       </c>
@@ -14793,7 +15150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>57</v>
       </c>
@@ -14825,7 +15182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>0</v>
       </c>
@@ -14857,7 +15214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F374">
         <v>0.56000000000000005</v>
       </c>
@@ -14874,7 +15231,7 @@
         <v>6.4518000000000004</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>57</v>
       </c>
@@ -14906,7 +15263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>57</v>
       </c>
@@ -14938,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>0</v>
       </c>
@@ -14970,7 +15327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F378">
         <v>0.56000000000000005</v>
       </c>
@@ -14987,7 +15344,7 @@
         <v>0.51670000000000504</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>58</v>
       </c>
@@ -15019,7 +15376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>58</v>
       </c>
@@ -15051,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>0</v>
       </c>
@@ -15083,7 +15440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F382">
         <v>0.56000000000000005</v>
       </c>
@@ -15100,7 +15457,7 @@
         <v>0.51670000000000504</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>58</v>
       </c>
@@ -15132,7 +15489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>58</v>
       </c>
@@ -15164,7 +15521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>0</v>
       </c>
@@ -15196,7 +15553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F386">
         <v>0.56000000000000005</v>
       </c>
@@ -15213,7 +15570,7 @@
         <v>1.1228</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>59</v>
       </c>
@@ -15245,7 +15602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>59</v>
       </c>
@@ -15277,7 +15634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>0</v>
       </c>
@@ -15309,7 +15666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F390">
         <v>0.56000000000000005</v>
       </c>
@@ -15326,7 +15683,7 @@
         <v>1.1228</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>59</v>
       </c>
@@ -15358,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>59</v>
       </c>
@@ -15390,7 +15747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>0</v>
       </c>
@@ -15422,7 +15779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F394">
         <v>0.56000000000000005</v>
       </c>
@@ -15439,7 +15796,7 @@
         <v>0.882000000000013</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>60</v>
       </c>
@@ -15471,7 +15828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>60</v>
       </c>
@@ -15503,7 +15860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>0</v>
       </c>
@@ -15535,7 +15892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F398">
         <v>0.56000000000000005</v>
       </c>
@@ -15552,7 +15909,7 @@
         <v>0.882000000000013</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>60</v>
       </c>
@@ -15584,7 +15941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>60</v>
       </c>
@@ -15616,7 +15973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>0</v>
       </c>
@@ -15645,7 +16002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F402">
         <v>0.56000000000000005</v>
       </c>
@@ -15659,7 +16016,7 @@
         <v>5.9076999999993003</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>61</v>
       </c>
@@ -15688,7 +16045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>61</v>
       </c>
@@ -15717,7 +16074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>0</v>
       </c>
@@ -15746,7 +16103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F406">
         <v>0.56000000000000005</v>
       </c>
@@ -15760,7 +16117,7 @@
         <v>5.9076999999993003</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>61</v>
       </c>
@@ -15789,7 +16146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>61</v>
       </c>
@@ -15818,7 +16175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>0</v>
       </c>
@@ -15847,7 +16204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F410">
         <v>0.56000000000000005</v>
       </c>
@@ -15861,7 +16218,7 @@
         <v>5.8045999999992901</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>62</v>
       </c>
@@ -15890,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>62</v>
       </c>
@@ -15919,7 +16276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>0</v>
       </c>
@@ -15948,7 +16305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F414">
         <v>0.56000000000000005</v>
       </c>
@@ -15962,7 +16319,7 @@
         <v>5.8045999999992901</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>62</v>
       </c>
@@ -15991,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>62</v>
       </c>
@@ -16020,7 +16377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>0</v>
       </c>
@@ -16049,7 +16406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F418">
         <v>0.56000000000000005</v>
       </c>
@@ -16063,7 +16420,7 @@
         <v>6.2077999999993301</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>63</v>
       </c>
@@ -16092,7 +16449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>63</v>
       </c>
@@ -16121,7 +16478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>0</v>
       </c>
@@ -16150,7 +16507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F422">
         <v>0.56000000000000005</v>
       </c>
@@ -16164,7 +16521,7 @@
         <v>6.2077999999993301</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>63</v>
       </c>
@@ -16193,7 +16550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>63</v>
       </c>
@@ -16222,7 +16579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>0</v>
       </c>
@@ -16251,7 +16608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F426">
         <v>0.56000000000000005</v>
       </c>
@@ -16265,7 +16622,7 @@
         <v>5.7055999999993503</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>64</v>
       </c>
@@ -16294,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>64</v>
       </c>
@@ -16323,7 +16680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>0</v>
       </c>
@@ -16352,7 +16709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F430">
         <v>0.56000000000000005</v>
       </c>
@@ -16366,7 +16723,7 @@
         <v>5.7055999999993503</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>64</v>
       </c>
@@ -16395,7 +16752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>64</v>
       </c>
@@ -16424,7 +16781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>0</v>
       </c>
@@ -16453,7 +16810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F434">
         <v>0.56000000000000005</v>
       </c>
@@ -16467,7 +16824,7 @@
         <v>5.8050999999993396</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>65</v>
       </c>
@@ -16496,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>65</v>
       </c>
@@ -16525,7 +16882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>0</v>
       </c>
@@ -16554,7 +16911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F438">
         <v>0.56000000000000005</v>
       </c>
@@ -16568,7 +16925,7 @@
         <v>5.8050999999993396</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>65</v>
       </c>
@@ -16597,7 +16954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>65</v>
       </c>
@@ -16626,7 +16983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>0</v>
       </c>
@@ -16655,7 +17012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F442">
         <v>0.56000000000000005</v>
       </c>
@@ -16669,7 +17026,7 @@
         <v>6.1164999999994496</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>66</v>
       </c>
@@ -16698,7 +17055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>66</v>
       </c>
@@ -16727,7 +17084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>0</v>
       </c>
@@ -16756,7 +17113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F446">
         <v>0.56000000000000005</v>
       </c>
@@ -16770,7 +17127,7 @@
         <v>6.1164999999994496</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>66</v>
       </c>
@@ -16799,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>66</v>
       </c>
@@ -16828,7 +17185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>0</v>
       </c>
@@ -16857,7 +17214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F450">
         <v>0.56000000000000005</v>
       </c>
@@ -16871,7 +17228,7 @@
         <v>5.80759999999934</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>67</v>
       </c>
@@ -16900,7 +17257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>67</v>
       </c>
@@ -16929,7 +17286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>0</v>
       </c>
@@ -16958,7 +17315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F454">
         <v>0.56000000000000005</v>
       </c>
@@ -16972,7 +17329,7 @@
         <v>5.80759999999934</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>67</v>
       </c>
@@ -17001,7 +17358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>67</v>
       </c>
@@ -17030,7 +17387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>0</v>
       </c>
@@ -17059,7 +17416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F458">
         <v>0.56000000000000005</v>
       </c>
@@ -17073,7 +17430,7 @@
         <v>5.8085999999993501</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>68</v>
       </c>
@@ -17102,7 +17459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>68</v>
       </c>
@@ -17131,7 +17488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>0</v>
       </c>
@@ -17160,7 +17517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F462">
         <v>0.56000000000000005</v>
       </c>
@@ -17174,7 +17531,7 @@
         <v>5.8085999999993501</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>68</v>
       </c>
@@ -17203,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>68</v>
       </c>
@@ -17232,7 +17589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>0</v>
       </c>
@@ -17261,7 +17618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F466">
         <v>0.56000000000000005</v>
       </c>
@@ -17275,7 +17632,7 @@
         <v>5.8019999999993797</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>69</v>
       </c>
@@ -17304,7 +17661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>69</v>
       </c>
@@ -17333,7 +17690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>0</v>
       </c>
@@ -17362,7 +17719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F470">
         <v>0.56000000000000005</v>
       </c>
@@ -17376,7 +17733,7 @@
         <v>5.8019999999993797</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>69</v>
       </c>
@@ -17405,7 +17762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>69</v>
       </c>
@@ -17434,7 +17791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>0</v>
       </c>
@@ -17463,7 +17820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F474">
         <v>0.56000000000000005</v>
       </c>
@@ -17477,7 +17834,7 @@
         <v>6.0096999999992899</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>70</v>
       </c>
@@ -17506,7 +17863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>70</v>
       </c>
@@ -17535,7 +17892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>0</v>
       </c>
@@ -17564,7 +17921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F478">
         <v>0.56000000000000005</v>
       </c>
@@ -17578,7 +17935,7 @@
         <v>6.0096999999992899</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>70</v>
       </c>
@@ -17607,7 +17964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>70</v>
       </c>
@@ -17636,7 +17993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
         <f>480/4</f>
         <v>120</v>
@@ -17655,17 +18012,17 @@
       <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17694,7 +18051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -17723,7 +18080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -17752,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -17781,7 +18138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -17810,7 +18167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -17839,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -17868,7 +18225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -17897,7 +18254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -17926,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -17949,7 +18306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -17972,7 +18329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
@@ -17995,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
@@ -18018,7 +18375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
@@ -18041,7 +18398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -18064,75 +18421,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>106</v>
       </c>
@@ -18156,13 +18513,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BB6AF4-8B0E-F242-B5C7-6B043183F95B}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -18194,7 +18551,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18220,7 +18577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18246,7 +18603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -18272,7 +18629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -18298,7 +18655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -18324,7 +18681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -18350,62 +18707,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
